--- a/INTLINE/data/542/BOKFS/Credit to Households.xlsx
+++ b/INTLINE/data/542/BOKFS/Credit to Households.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DABBE32-F80E-471A-B6B9-840C06BACBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B276F2F3-AA0E-40F3-A821-8B8BC4368E06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="23880" windowHeight="9870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -385,13 +385,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1229,13 +1229,13 @@
       </c>
     </row>
     <row r="2" spans="1:85" ht="23.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D2" s="5" t="s">
